--- a/JavaBooks.xlsx
+++ b/JavaBooks.xlsx
@@ -6,72 +6,336 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Receipe List" r:id="rId3" sheetId="1"/>
+    <sheet name="HyperTension" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Receipe Name</t>
   </si>
   <si>
+    <t>Recipe ID</t>
+  </si>
+  <si>
     <t>Ingredients</t>
   </si>
   <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>Preparation Method</t>
+  </si>
+  <si>
+    <t>Nutrient Values</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>Allergy Ingredients</t>
+  </si>
+  <si>
     <t>oats vegetable khichdi recipe | oats vegetable dal khichdi | healthy oats vegetable khichdi for weight loss |</t>
   </si>
   <si>
     <t>[quick cooking rolled oats, yellow moong dal (split yellow gram), chopped carrot, chopped french beans, oil, cumin seeds (jeera), asafoetida (hing), chopped onions, slit green chillies, garlic (lehsun) paste, chilli powder, turmeric powder (haldi)]</t>
   </si>
   <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>For oats vegetable khichdi
+To make oats vegetable khichdi, clean, wash and soak the moong dal for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker add the cumin seeds and asafoetida and sauté for few seconds.
+Add the onions and green chillies and sauté on medium flame for 1 minute.
+Add the garlic paste, chilli powder, turmeric powder and 1 tbsp of water and sauté on a medium flame for few seconds.
+Add the oats, moong dal, carrots and french beans, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add 3 cups of hot water and salt, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve the oats vegetable khichdi immediately.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 5.7 g
+Carbohydrates 20.2 g
+Fiber 3.3 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 200.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-vegetable-khichdi-healthy-oats-khichdi-for-weight-loss-22327r</t>
+  </si>
+  <si>
+    <t>22327</t>
+  </si>
+  <si>
     <t>Pineapple, Papaya and Aloe Vera Juice</t>
   </si>
   <si>
     <t>[pineapple cubes, papaya cubes, chopped aloe vera, lemon juice, honey]</t>
   </si>
   <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Juicer method
+Add the pineapple cubes, papaya cubes and aloe vera blend in a juicer till smooth.
+Strain the juice using a strainer.
+Add the lemon juice and honey and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Hopper method
+This recipe doesn’t turn out good in a hopper because aloe vera is too sticky to pass it through the hopper.</t>
+  </si>
+  <si>
+    <t>Energy 57 cal
+Protein 0.6 g
+Carbohydrates 13.6 g
+Fiber 2.2 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 25 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pineapple-papaya-and-aloe-vera-juice-38862r</t>
+  </si>
+  <si>
+    <t>38862</t>
+  </si>
+  <si>
     <t>anti cholesterol shake recipe | low cholesterol papaya banana orange smoothie | healthy Indian shake good for heart |</t>
   </si>
   <si>
     <t>[chopped papaya, orange segments, chopped bananas, vanilla extract]</t>
   </si>
   <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>For anti cholesterol shake
+To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
+Blend till smooth and frothy.
+Serve anti cholesterol shake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.5 g
+Carbohydrates 23.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t>6222</t>
+  </si>
+  <si>
     <t>ginger cinnamon tea recipe | healthy ginger tea for cold | detox ginger cinnamon tea | immune booster ginger cinnamon honey tea |</t>
   </si>
   <si>
     <t>[ginger (adrak) roundels, cinnamon (dalchini)]</t>
   </si>
   <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>For ginger cinnamon tea
+To make ginger cinnamon tea, combine the ginger, cinnamon and 2 cups of water in a non-stick saucepan. Mix well, cover with a lid and cook on a medium flame for 8 minutes.
+Strain the mixture.
+Add the honey and mix well.
+Serve the ginger cinnamon tea warm.</t>
+  </si>
+  <si>
+    <t>Energy 5 cal
+Protein 0 g
+Carbohydrates 1.4 g
+Fiber 0 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ginger-cinnamon-tea-41753r</t>
+  </si>
+  <si>
+    <t>41753</t>
+  </si>
+  <si>
     <t>jowar roti recipe | jowar ki roti | healthy jowar roti | sorghum roti |</t>
   </si>
   <si>
     <t>[jowar (white millet) flour]</t>
   </si>
   <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>For jowar roti
+To make jowar roti, heat ¾ cup of water in a deep non-stick pan, switch off the flame, add the jowar flour and mix well. Keep aside to cool slightly.
+Transfer the mixture into a deep bowl and knead into a soft dough using 1 to 2 tbsp of water if needed.
+Divide the dough into 7 equal portions.
+Take a portion the dough, flatten it slightly and place it on a dusted rolling board and roll with your hands into a 125 mm. (5”) diameter circle.
+Heat a non-stick tava (griddle) on a medium flame and when hot, place the jowar roti gently over it.
+Cook it till small blisters appear on the surface. Turn over the jowar roti and cook for few more seconds.
+Cook the jowar roti on an open flame till it puffs up and brown spots appear on both the sides.
+Repeat steps 4 to 7 to make 6 more rotis.
+Serve the jowar roti immediately.</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 1.5 g
+Carbohydrates 10.2 g
+Fiber 1.4 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-roti-41569r</t>
+  </si>
+  <si>
+    <t>41569</t>
+  </si>
+  <si>
     <t>Rajma Brown Rice, Low Salt Recipe</t>
   </si>
   <si>
     <t>[rajma (kidney beans), soaked and cooked brown rice, oil, cumin seeds (jeera), asafoetida (hing), sliced onions, ginger-garlic (adrak-lehsun) paste, chopped tomatoes, turmeric powder (haldi), chilli powder, coriander-cumin seeds (dhania-jeera) powder]</t>
   </si>
   <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
+    <t>42032</t>
+  </si>
+  <si>
     <t>anti aging breakfast platter recipe | healthy breakfast platter idea | vegetarian Indian breakfast platter for healthy skin | healthy breakfast board |</t>
   </si>
   <si>
     <t>[sprouted moong (whole green gram), low fat paneer (cottage cheese) cubes, chilli powder, cumin seeds (jeera) powder, rock salt (sendha namak), oranges, watermelon (tarbuj) balls, grapes, dates (khajur), walnuts (akhrot)]</t>
   </si>
   <si>
+    <t>For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
     <t>Vegan Oats and Coconut Milk Pudding</t>
   </si>
   <si>
     <t>[quick cooking rolled oats, coconut milk (nariyal ka doodh), peanut butter, maple syrup, vanilla essence]</t>
   </si>
   <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredient in a mixer and blend it till smooth.
+Pour the mixture in a deep bowl, cover it with a lid and keep it in the refrigerator to set for 24 hours.
+Garnish it with almond and serve.</t>
+  </si>
+  <si>
+    <t>Energy 355 cal
+Protein 3.2 g
+Carbohydrates 19.7 g
+Fiber 2 g
+Fat 29 g
+Cholesterol 41.2 mg
+Sodium 141 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegan-oats-and-coconut-milk-pudding-42346r</t>
+  </si>
+  <si>
+    <t>42346</t>
+  </si>
+  <si>
     <t>Mooli Moong Dal, Low Salt Recipe</t>
   </si>
   <si>
     <t>[chopped white radish (mooli), yellow moong dal (split yellow gram), turmeric powder (haldi), oil, cumin seeds (jeera), bayleaf (tejpatta), cloves (laung / lavang), chopped green chillies, chopped ginger (adrak), asafoetida (hing), chilli powder]</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>Combine the radish, moong dal turmeric powder and 2 cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep pan and add the cumin seeds, bayleaf and cloves.
+When the seeds crackle, add the green chillies, ginger, asafoetida and chilli powder and sauté on a medium flame for a few seconds.
+Add the radish-moong dal mixture, 1 cup of water and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 81 cal
+Protein 4.8 g
+Carbohydrates 12.1 g
+Fiber 2.1 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 206.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mooli-moong-dal-low-salt-recipe-22324r</t>
+  </si>
+  <si>
+    <t>22324</t>
   </si>
 </sst>
 </file>
@@ -108,15 +372,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,80 +396,266 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>